--- a/results/mp/tinybert/corona/confidence/126/stop-words-topk-masking-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/126/stop-words-topk-masking-0.1/avg_0.004_scores.xlsx
@@ -55,12 +55,15 @@
     <t>low</t>
   </si>
   <si>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
     <t>sc</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
@@ -70,78 +73,75 @@
     <t>negative</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>positive</t>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>safe</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
     <t>support</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>important</t>
+    <t>relief</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
     <t>help</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
     <t>please</t>
   </si>
   <si>
@@ -154,10 +154,10 @@
     <t>increase</t>
   </si>
   <si>
+    <t>shopping</t>
+  </si>
+  <si>
     <t>online</t>
-  </si>
-  <si>
-    <t>shopping</t>
   </si>
   <si>
     <t>store</t>
@@ -527,7 +527,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q36"/>
+  <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -535,10 +535,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -617,16 +617,16 @@
         <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K3">
-        <v>0.9696969696969697</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="L3">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="M3">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K4">
-        <v>0.9565217391304348</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L4">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="M4">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -688,7 +688,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -696,13 +696,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6952054794520548</v>
+        <v>0.7054794520547946</v>
       </c>
       <c r="C5">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D5">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -714,19 +714,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K5">
-        <v>0.9491525423728814</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L5">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="M5">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -738,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -746,13 +746,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.3733333333333334</v>
+        <v>0.4</v>
       </c>
       <c r="C6">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -764,19 +764,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K6">
-        <v>0.875</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L6">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M6">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -796,13 +796,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.3624161073825503</v>
+        <v>0.3758389261744967</v>
       </c>
       <c r="C7">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D7">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -814,19 +814,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K7">
-        <v>0.8333333333333334</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L7">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="M7">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -846,13 +846,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.328042328042328</v>
+        <v>0.3376623376623377</v>
       </c>
       <c r="C8">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="D8">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -864,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>127</v>
+        <v>51</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K8">
-        <v>0.8292682926829268</v>
+        <v>0.828125</v>
       </c>
       <c r="L8">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="M8">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -888,7 +888,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -896,13 +896,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.3197674418604651</v>
+        <v>0.3294573643410852</v>
       </c>
       <c r="C9">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="D9">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -914,19 +914,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K9">
-        <v>0.8275862068965517</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L9">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M9">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -946,13 +946,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1865079365079365</v>
+        <v>0.3121693121693122</v>
       </c>
       <c r="C10">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D10">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -964,19 +964,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>205</v>
+        <v>130</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K10">
-        <v>0.825</v>
+        <v>0.8085106382978723</v>
       </c>
       <c r="L10">
-        <v>99</v>
+        <v>38</v>
       </c>
       <c r="M10">
-        <v>99</v>
+        <v>38</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -988,7 +988,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -996,64 +996,88 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.1072386058981233</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="C11">
+        <v>48</v>
+      </c>
+      <c r="D11">
+        <v>48</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>204</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K11">
+        <v>0.8055555555555556</v>
+      </c>
+      <c r="L11">
+        <v>29</v>
+      </c>
+      <c r="M11">
+        <v>29</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>0.09115281501340483</v>
+      </c>
+      <c r="C12">
+        <v>34</v>
+      </c>
+      <c r="D12">
+        <v>34</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>339</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12">
+        <v>0.7843137254901961</v>
+      </c>
+      <c r="L12">
         <v>40</v>
       </c>
-      <c r="D11">
+      <c r="M12">
         <v>40</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>333</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K11">
-        <v>0.8203125</v>
-      </c>
-      <c r="L11">
-        <v>105</v>
-      </c>
-      <c r="M11">
-        <v>105</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="J12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K12">
-        <v>0.803921568627451</v>
-      </c>
-      <c r="L12">
-        <v>41</v>
-      </c>
-      <c r="M12">
-        <v>41</v>
-      </c>
       <c r="N12">
         <v>1</v>
       </c>
@@ -1064,12 +1088,12 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K13">
         <v>0.7816901408450704</v>
@@ -1095,16 +1119,16 @@
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K14">
-        <v>0.746031746031746</v>
+        <v>0.775</v>
       </c>
       <c r="L14">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="M14">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1116,21 +1140,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K15">
-        <v>0.7446808510638298</v>
+        <v>0.7301587301587301</v>
       </c>
       <c r="L15">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="M15">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1142,21 +1166,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K16">
-        <v>0.7358490566037735</v>
+        <v>0.7264150943396226</v>
       </c>
       <c r="L16">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M16">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1168,21 +1192,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K17">
-        <v>0.70625</v>
+        <v>0.725</v>
       </c>
       <c r="L17">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M17">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1194,21 +1218,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K18">
-        <v>0.6875</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="L18">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="M18">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1220,21 +1244,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K19">
-        <v>0.6808510638297872</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="L19">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="M19">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1246,21 +1270,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K20">
-        <v>0.6266318537859008</v>
+        <v>0.6161879895561357</v>
       </c>
       <c r="L20">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="M20">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1272,21 +1296,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K21">
-        <v>0.6</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="L21">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M21">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1298,21 +1322,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K22">
-        <v>0.5735294117647058</v>
+        <v>0.58</v>
       </c>
       <c r="L22">
-        <v>195</v>
+        <v>29</v>
       </c>
       <c r="M22">
-        <v>195</v>
+        <v>29</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1324,21 +1348,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>145</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K23">
-        <v>0.5600000000000001</v>
+        <v>0.5794117647058824</v>
       </c>
       <c r="L23">
-        <v>28</v>
+        <v>197</v>
       </c>
       <c r="M23">
-        <v>28</v>
+        <v>197</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1350,21 +1374,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>22</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K24">
-        <v>0.5457627118644067</v>
+        <v>0.5559322033898305</v>
       </c>
       <c r="L24">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="M24">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1376,21 +1400,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K25">
-        <v>0.5056179775280899</v>
+        <v>0.5280898876404494</v>
       </c>
       <c r="L25">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M25">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1402,21 +1426,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K26">
-        <v>0.4769230769230769</v>
+        <v>0.4644351464435146</v>
       </c>
       <c r="L26">
-        <v>31</v>
+        <v>111</v>
       </c>
       <c r="M26">
-        <v>31</v>
+        <v>111</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1428,21 +1452,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>34</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K27">
-        <v>0.4476987447698745</v>
+        <v>0.453125</v>
       </c>
       <c r="L27">
-        <v>107</v>
+        <v>29</v>
       </c>
       <c r="M27">
-        <v>107</v>
+        <v>29</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1454,21 +1478,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>132</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K28">
-        <v>0.40625</v>
+        <v>0.4520547945205479</v>
       </c>
       <c r="L28">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="M28">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1480,21 +1504,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K29">
-        <v>0.3972602739726027</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="L29">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M29">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1506,21 +1530,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K30">
-        <v>0.3717948717948718</v>
+        <v>0.0985576923076923</v>
       </c>
       <c r="L30">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="M30">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1532,21 +1556,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>49</v>
+        <v>375</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K31">
-        <v>0.08133971291866028</v>
+        <v>0.09330143540669857</v>
       </c>
       <c r="L31">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="M31">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1558,21 +1582,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K32">
-        <v>0.07692307692307693</v>
+        <v>0.05145413870246085</v>
       </c>
       <c r="L32">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="M32">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1584,21 +1608,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>384</v>
+        <v>848</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K33">
-        <v>0.05257270693512305</v>
+        <v>0.03884572697003329</v>
       </c>
       <c r="L33">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="M33">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1610,85 +1634,59 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>847</v>
+        <v>866</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K34">
-        <v>0.03995560488346282</v>
+        <v>0.02242990654205607</v>
       </c>
       <c r="L34">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="M34">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="N34">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O34">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34">
-        <v>865</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K35">
-        <v>0.02474323062558357</v>
+        <v>0.01386202450032237</v>
       </c>
       <c r="L35">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="M35">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="N35">
-        <v>0.98</v>
+        <v>0.9</v>
       </c>
       <c r="O35">
-        <v>0.02000000000000002</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P35" t="b">
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>2089</v>
-      </c>
-    </row>
-    <row r="36" spans="10:17">
-      <c r="J36" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K36">
-        <v>0.01030595813204509</v>
-      </c>
-      <c r="L36">
-        <v>32</v>
-      </c>
-      <c r="M36">
-        <v>34</v>
-      </c>
-      <c r="N36">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="O36">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="P36" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q36">
-        <v>3073</v>
+        <v>3059</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/126/stop-words-topk-masking-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/126/stop-words-topk-masking-0.1/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,15 +49,12 @@
     <t>crisis</t>
   </si>
   <si>
+    <t>low</t>
+  </si>
+  <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
@@ -94,42 +91,45 @@
     <t>positive</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>heroes</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>safety</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>support</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
+    <t>confidence</t>
+  </si>
+  <si>
     <t>well</t>
   </si>
   <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
     <t>important</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
     <t>relief</t>
   </si>
   <si>
@@ -151,13 +151,16 @@
     <t>protect</t>
   </si>
   <si>
+    <t>hope</t>
+  </si>
+  <si>
     <t>increase</t>
   </si>
   <si>
+    <t>online</t>
+  </si>
+  <si>
     <t>shopping</t>
-  </si>
-  <si>
-    <t>online</t>
   </si>
   <si>
     <t>store</t>
@@ -527,7 +530,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q35"/>
+  <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -535,10 +538,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -596,13 +599,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9411764705882353</v>
+        <v>0.9117647058823529</v>
       </c>
       <c r="C3">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -614,31 +617,31 @@
         <v>0</v>
       </c>
       <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3">
+        <v>0.9565217391304348</v>
+      </c>
+      <c r="L3">
+        <v>44</v>
+      </c>
+      <c r="M3">
+        <v>44</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q3">
         <v>2</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3">
-        <v>0.9782608695652174</v>
-      </c>
-      <c r="L3">
-        <v>45</v>
-      </c>
-      <c r="M3">
-        <v>45</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -667,7 +670,7 @@
         <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K4">
         <v>0.9491525423728814</v>
@@ -696,13 +699,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7054794520547946</v>
+        <v>0.708904109589041</v>
       </c>
       <c r="C5">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D5">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -714,10 +717,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K5">
         <v>0.9393939393939394</v>
@@ -746,13 +749,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.4</v>
+        <v>0.3892617449664429</v>
       </c>
       <c r="C6">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -764,19 +767,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K6">
-        <v>0.8660714285714286</v>
+        <v>0.875</v>
       </c>
       <c r="L6">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M6">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -788,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -796,13 +799,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.3758389261744967</v>
+        <v>0.36</v>
       </c>
       <c r="C7">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="D7">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -814,10 +817,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K7">
         <v>0.8414634146341463</v>
@@ -846,13 +849,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.3376623376623377</v>
+        <v>0.3217054263565892</v>
       </c>
       <c r="C8">
-        <v>26</v>
+        <v>166</v>
       </c>
       <c r="D8">
-        <v>26</v>
+        <v>166</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -864,19 +867,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>51</v>
+        <v>350</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K8">
-        <v>0.828125</v>
+        <v>0.8203125</v>
       </c>
       <c r="L8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -888,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -896,13 +899,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.3294573643410852</v>
+        <v>0.2698412698412698</v>
       </c>
       <c r="C9">
-        <v>170</v>
+        <v>51</v>
       </c>
       <c r="D9">
-        <v>170</v>
+        <v>51</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -914,10 +917,10 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>346</v>
+        <v>138</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K9">
         <v>0.8103448275862069</v>
@@ -946,13 +949,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.3121693121693122</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C10">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="D10">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -964,19 +967,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>130</v>
+        <v>210</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K10">
-        <v>0.8085106382978723</v>
+        <v>0.8083333333333333</v>
       </c>
       <c r="L10">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="M10">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -988,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -996,13 +999,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.1904761904761905</v>
+        <v>0.09919571045576407</v>
       </c>
       <c r="C11">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="D11">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1014,69 +1017,45 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>204</v>
+        <v>336</v>
       </c>
       <c r="J11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11">
+        <v>0.795774647887324</v>
+      </c>
+      <c r="L11">
+        <v>113</v>
+      </c>
+      <c r="M11">
+        <v>113</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="J12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K11">
-        <v>0.8055555555555556</v>
-      </c>
-      <c r="L11">
-        <v>29</v>
-      </c>
-      <c r="M11">
-        <v>29</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
-        <v>0.09115281501340483</v>
-      </c>
-      <c r="C12">
-        <v>34</v>
-      </c>
-      <c r="D12">
-        <v>34</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>339</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="K12">
-        <v>0.7843137254901961</v>
+        <v>0.7872340425531915</v>
       </c>
       <c r="L12">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="M12">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1088,21 +1067,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K13">
-        <v>0.7816901408450704</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L13">
-        <v>111</v>
+        <v>28</v>
       </c>
       <c r="M13">
-        <v>111</v>
+        <v>28</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1114,21 +1093,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>31</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K14">
-        <v>0.775</v>
+        <v>0.746031746031746</v>
       </c>
       <c r="L14">
-        <v>93</v>
+        <v>47</v>
       </c>
       <c r="M14">
-        <v>93</v>
+        <v>47</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1140,21 +1119,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K15">
-        <v>0.7301587301587301</v>
+        <v>0.7450980392156863</v>
       </c>
       <c r="L15">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="M15">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1166,12 +1145,12 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K16">
         <v>0.7264150943396226</v>
@@ -1197,16 +1176,16 @@
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K17">
-        <v>0.725</v>
+        <v>0.71875</v>
       </c>
       <c r="L17">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M17">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1218,21 +1197,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K18">
-        <v>0.6595744680851063</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="L18">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="M18">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1244,21 +1223,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>32</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K19">
-        <v>0.6444444444444445</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="L19">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="M19">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1270,21 +1249,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K20">
-        <v>0.6161879895561357</v>
+        <v>0.625</v>
       </c>
       <c r="L20">
-        <v>236</v>
+        <v>30</v>
       </c>
       <c r="M20">
-        <v>236</v>
+        <v>30</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1296,21 +1275,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>147</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K21">
-        <v>0.6041666666666666</v>
+        <v>0.6214099216710183</v>
       </c>
       <c r="L21">
-        <v>29</v>
+        <v>238</v>
       </c>
       <c r="M21">
-        <v>29</v>
+        <v>238</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1322,21 +1301,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>19</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K22">
-        <v>0.58</v>
+        <v>0.6</v>
       </c>
       <c r="L22">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M22">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1348,21 +1327,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K23">
-        <v>0.5794117647058824</v>
+        <v>0.6</v>
       </c>
       <c r="L23">
-        <v>197</v>
+        <v>30</v>
       </c>
       <c r="M23">
-        <v>197</v>
+        <v>30</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1374,21 +1353,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>143</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K24">
-        <v>0.5559322033898305</v>
+        <v>0.5558823529411765</v>
       </c>
       <c r="L24">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="M24">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1400,21 +1379,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>131</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K25">
-        <v>0.5280898876404494</v>
+        <v>0.5389830508474577</v>
       </c>
       <c r="L25">
-        <v>47</v>
+        <v>159</v>
       </c>
       <c r="M25">
-        <v>47</v>
+        <v>159</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1426,21 +1405,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>42</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K26">
-        <v>0.4644351464435146</v>
+        <v>0.4943820224719101</v>
       </c>
       <c r="L26">
-        <v>111</v>
+        <v>44</v>
       </c>
       <c r="M26">
-        <v>111</v>
+        <v>44</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1452,21 +1431,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>128</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K27">
-        <v>0.453125</v>
+        <v>0.4644351464435146</v>
       </c>
       <c r="L27">
-        <v>29</v>
+        <v>111</v>
       </c>
       <c r="M27">
-        <v>29</v>
+        <v>111</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1478,21 +1457,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>35</v>
+        <v>128</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K28">
-        <v>0.4520547945205479</v>
+        <v>0.453125</v>
       </c>
       <c r="L28">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M28">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1504,21 +1483,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K29">
-        <v>0.358974358974359</v>
+        <v>0.4520547945205479</v>
       </c>
       <c r="L29">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="M29">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1530,21 +1509,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K30">
-        <v>0.0985576923076923</v>
+        <v>0.4307692307692308</v>
       </c>
       <c r="L30">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="M30">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1556,21 +1535,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>375</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K31">
-        <v>0.09330143540669857</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="L31">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="M31">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1582,21 +1561,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>379</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K32">
+        <v>0.1148325358851675</v>
+      </c>
+      <c r="L32">
         <v>48</v>
       </c>
-      <c r="K32">
-        <v>0.05145413870246085</v>
-      </c>
-      <c r="L32">
-        <v>46</v>
-      </c>
       <c r="M32">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1608,21 +1587,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>848</v>
+        <v>370</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K33">
-        <v>0.03884572697003329</v>
+        <v>0.0985576923076923</v>
       </c>
       <c r="L33">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="M33">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1634,59 +1613,111 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>866</v>
+        <v>375</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K34">
-        <v>0.02242990654205607</v>
+        <v>0.06040268456375839</v>
       </c>
       <c r="L34">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="M34">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="N34">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>2092</v>
+        <v>840</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K35">
-        <v>0.01386202450032237</v>
+        <v>0.04772475027746948</v>
       </c>
       <c r="L35">
         <v>43</v>
       </c>
       <c r="M35">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="N35">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="O35">
-        <v>0.09999999999999998</v>
+        <v>0</v>
       </c>
       <c r="P35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>3059</v>
+        <v>858</v>
+      </c>
+    </row>
+    <row r="36" spans="10:17">
+      <c r="J36" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K36">
+        <v>0.0304022450888681</v>
+      </c>
+      <c r="L36">
+        <v>65</v>
+      </c>
+      <c r="M36">
+        <v>70</v>
+      </c>
+      <c r="N36">
+        <v>0.93</v>
+      </c>
+      <c r="O36">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P36" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q36">
+        <v>2073</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17">
+      <c r="J37" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K37">
+        <v>0.01610824742268041</v>
+      </c>
+      <c r="L37">
+        <v>50</v>
+      </c>
+      <c r="M37">
+        <v>53</v>
+      </c>
+      <c r="N37">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O37">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P37" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q37">
+        <v>3054</v>
       </c>
     </row>
   </sheetData>
